--- a/_Excel/ItemTablev1.0.7.xlsx
+++ b/_Excel/ItemTablev1.0.7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ypcom\Documents\GitHub\TeamProjectUnity\_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEOULIT\Documents\GitHub\TeamProjectUnity\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="239">
   <si>
     <t>def</t>
   </si>
@@ -1837,9 +1837,6 @@
     <t>//소모템 리스트</t>
   </si>
   <si>
-    <t>티타늄 등급(5)</t>
-  </si>
-  <si>
     <t>lvupitemcnt</t>
   </si>
   <si>
@@ -1969,15 +1966,9 @@
     <t>일반(1)</t>
   </si>
   <si>
-    <t>은 등급(3)</t>
-  </si>
-  <si>
     <t>param1</t>
   </si>
   <si>
-    <t>돌 등급(1)</t>
-  </si>
-  <si>
     <t>param3</t>
   </si>
   <si>
@@ -2002,9 +1993,6 @@
     <t>멀티템(1)</t>
   </si>
   <si>
-    <t>동 등급(2)</t>
-  </si>
-  <si>
     <t>하의(3)</t>
   </si>
   <si>
@@ -2045,9 +2033,6 @@
   </si>
   <si>
     <t>장착템(1)</t>
-  </si>
-  <si>
-    <t>금 등급(4)</t>
   </si>
   <si>
     <t>장착인벤(1)</t>
@@ -2317,6 +2302,26 @@
   </si>
   <si>
     <t>Shoe6</t>
+  </si>
+  <si>
+    <t>기본 등급(0)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어 등급(1)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>에픽 등급(2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>신화 등급(3)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인(30)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2984,7 +2989,7 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3088,9 +3093,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3474,7 +3476,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>32</v>
@@ -3493,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3501,7 +3503,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3509,7 +3511,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3517,7 +3519,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3582,7 +3584,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>45</v>
@@ -3596,19 +3598,19 @@
         <v>9</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>4</v>
@@ -3640,7 +3642,7 @@
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -3655,10 +3657,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>40</v>
@@ -3829,7 +3831,7 @@
     </row>
     <row r="11" spans="1:27" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
@@ -3846,10 +3848,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
@@ -3867,7 +3869,7 @@
         <v>80400</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
@@ -3885,7 +3887,7 @@
         <v>80401</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
@@ -3953,7 +3955,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -3995,15 +3997,15 @@
       </c>
       <c r="B1" s="10"/>
       <c r="E1" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H1" s="10"/>
-      <c r="I1" s="36" t="s">
-        <v>92</v>
+      <c r="I1" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
@@ -4030,28 +4032,28 @@
         <v>30</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H2" s="10"/>
-      <c r="I2" s="36" t="s">
-        <v>136</v>
+      <c r="I2" s="35" t="s">
+        <v>235</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -4074,27 +4076,27 @@
         <v>30</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>185</v>
+        <v>179</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>180</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>145</v>
+      <c r="H3" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="37" t="s">
-        <v>144</v>
+      <c r="M3" s="36" t="s">
+        <v>141</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -4116,36 +4118,36 @@
       <c r="A4" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="35" t="s">
+        <v>238</v>
+      </c>
       <c r="E4" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+        <v>202</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
     </row>
     <row r="5" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="17"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
       <c r="X5" s="20">
         <v>100</v>
       </c>
@@ -4157,19 +4159,17 @@
       <c r="A6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="36"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
+        <v>185</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
       <c r="X6" s="20">
         <v>200</v>
       </c>
@@ -4184,34 +4184,34 @@
       <c r="B7" s="10">
         <v>4000</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="36"/>
+      <c r="C7" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="35"/>
       <c r="H7" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+        <v>227</v>
+      </c>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <v>5000</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="36"/>
+      <c r="C8" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="35"/>
       <c r="E8" s="10"/>
       <c r="F8" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -4225,7 +4225,7 @@
       <c r="R8" s="13"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
@@ -4238,10 +4238,10 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -4249,7 +4249,7 @@
       <c r="F9" s="20"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -4263,7 +4263,7 @@
       <c r="R9" s="13"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
@@ -4298,31 +4298,31 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T10" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="U10" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="V10" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="W10" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="T10" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="U10" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="V10" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="W10" s="20" t="s">
+      <c r="X10" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y10" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z10" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA10" s="20" t="s">
         <v>138</v>
-      </c>
-      <c r="X10" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y10" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z10" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA10" s="20" t="s">
-        <v>141</v>
       </c>
       <c r="AB10" s="10"/>
     </row>
@@ -4331,7 +4331,7 @@
         <v>30</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -4348,13 +4348,13 @@
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R11" s="14"/>
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="38"/>
+      <c r="V11" s="37"/>
       <c r="W11" s="33"/>
       <c r="X11" s="33"/>
       <c r="Y11" s="33"/>
@@ -4367,55 +4367,55 @@
         <v>30</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>120</v>
-      </c>
       <c r="F12" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="H12" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>22</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>26</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N12" s="20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O12" s="10" t="s">
         <v>82</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q12" s="13" t="s">
         <v>31</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
@@ -4451,16 +4451,16 @@
         <v>80</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>71</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>78</v>
@@ -4484,19 +4484,19 @@
         <v>87</v>
       </c>
       <c r="S13" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="U13" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="T13" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>170</v>
-      </c>
       <c r="V13" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="W13" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
@@ -4510,25 +4510,25 @@
         <v>20001</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>201</v>
+        <v>155</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>196</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>92</v>
+        <v>198</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="J14" s="16">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         <f>F14&amp;" 입니다"</f>
         <v>초보자 검 입니다</v>
       </c>
-      <c r="S14" s="36">
+      <c r="S14" s="35">
         <v>10</v>
       </c>
       <c r="T14" s="4">
@@ -4568,43 +4568,43 @@
       <c r="U14" s="13">
         <v>0</v>
       </c>
-      <c r="V14" s="36">
+      <c r="V14" s="35">
         <v>0</v>
       </c>
       <c r="W14" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
+        <v>230</v>
+      </c>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
       <c r="AB14" s="13"/>
     </row>
     <row r="15" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <v>20002</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>201</v>
+      <c r="C15" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>196</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>92</v>
+        <v>198</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="J15" s="16">
         <v>0</v>
@@ -4631,29 +4631,29 @@
       <c r="Q15" s="12">
         <v>0</v>
       </c>
-      <c r="R15" s="36" t="str">
+      <c r="R15" s="35" t="str">
         <f>F15&amp;" 입니다"</f>
         <v>용사의 검 입니다</v>
       </c>
-      <c r="S15" s="36">
-        <v>10</v>
-      </c>
-      <c r="T15" s="36">
-        <v>0</v>
-      </c>
-      <c r="U15" s="36">
-        <v>0</v>
-      </c>
-      <c r="V15" s="36">
-        <v>0</v>
-      </c>
-      <c r="W15" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="36"/>
-      <c r="Z15" s="36"/>
-      <c r="AA15" s="36"/>
+      <c r="S15" s="35">
+        <v>25</v>
+      </c>
+      <c r="T15" s="35">
+        <v>0</v>
+      </c>
+      <c r="U15" s="35">
+        <v>0</v>
+      </c>
+      <c r="V15" s="35">
+        <v>0</v>
+      </c>
+      <c r="W15" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
       <c r="AB15" s="13"/>
     </row>
     <row r="16" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4679,16 +4679,16 @@
         <v>80</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>71</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>78</v>
@@ -4712,49 +4712,49 @@
         <v>87</v>
       </c>
       <c r="S16" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="U16" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="T16" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="U16" s="8" t="s">
+      <c r="V16" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="35">
+        <v>20100</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="V16" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="36">
+      <c r="G17" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="34">
+        <v>0</v>
+      </c>
+      <c r="K17" s="35">
         <v>20100</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="J17" s="34">
-        <v>0</v>
-      </c>
-      <c r="K17" s="36">
-        <v>20100</v>
-      </c>
       <c r="L17" s="34">
         <v>0</v>
       </c>
@@ -4767,62 +4767,62 @@
       <c r="O17" s="34">
         <v>0</v>
       </c>
-      <c r="P17" s="36">
+      <c r="P17" s="35">
         <v>1</v>
       </c>
       <c r="Q17" s="12">
         <v>0</v>
       </c>
-      <c r="R17" s="36" t="str">
+      <c r="R17" s="35" t="str">
         <f>F17&amp;" 입니다"</f>
         <v>초보자 지팡이 입니다</v>
       </c>
-      <c r="S17" s="36">
+      <c r="S17" s="35">
         <v>10</v>
       </c>
-      <c r="T17" s="36">
-        <v>0</v>
-      </c>
-      <c r="U17" s="36">
-        <v>0</v>
-      </c>
-      <c r="V17" s="36">
-        <v>0</v>
-      </c>
-      <c r="W17" s="36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="36">
+      <c r="T17" s="35">
+        <v>0</v>
+      </c>
+      <c r="U17" s="35">
+        <v>0</v>
+      </c>
+      <c r="V17" s="35">
+        <v>0</v>
+      </c>
+      <c r="W17" s="35" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="35">
         <v>20101</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>201</v>
+      <c r="C18" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>196</v>
       </c>
       <c r="E18" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="F18" s="34" t="s">
-        <v>166</v>
-      </c>
       <c r="G18" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="I18" s="36" t="s">
-        <v>92</v>
+        <v>137</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="J18" s="34">
         <v>0</v>
       </c>
       <c r="K18" s="34">
-        <f t="shared" ref="K17:K21" si="0">B18</f>
+        <f t="shared" ref="K18:K21" si="0">B18</f>
         <v>20101</v>
       </c>
       <c r="L18" s="34">
@@ -4837,30 +4837,30 @@
       <c r="O18" s="34">
         <v>0</v>
       </c>
-      <c r="P18" s="36">
+      <c r="P18" s="35">
         <v>1</v>
       </c>
       <c r="Q18" s="12">
         <v>0</v>
       </c>
-      <c r="R18" s="36" t="str">
+      <c r="R18" s="35" t="str">
         <f>F18&amp;" 입니다"</f>
         <v>마법사 지팡이 입니다</v>
       </c>
-      <c r="S18" s="36">
+      <c r="S18" s="35">
         <v>25</v>
       </c>
-      <c r="T18" s="36">
-        <v>0</v>
-      </c>
-      <c r="U18" s="36">
-        <v>0</v>
-      </c>
-      <c r="V18" s="36">
-        <v>0</v>
-      </c>
-      <c r="W18" s="36" t="s">
-        <v>237</v>
+      <c r="T18" s="35">
+        <v>0</v>
+      </c>
+      <c r="U18" s="35">
+        <v>0</v>
+      </c>
+      <c r="V18" s="35">
+        <v>0</v>
+      </c>
+      <c r="W18" s="35" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4886,16 +4886,16 @@
         <v>80</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>71</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>78</v>
@@ -4919,42 +4919,42 @@
         <v>87</v>
       </c>
       <c r="S19" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="U19" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="T19" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="U19" s="8" t="s">
-        <v>170</v>
-      </c>
       <c r="V19" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="36">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="35">
         <v>20200</v>
       </c>
-      <c r="C20" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D20" s="36" t="s">
+      <c r="C20" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>206</v>
-      </c>
       <c r="G20" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>92</v>
+        <v>137</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="J20" s="34">
         <v>0</v>
@@ -4975,56 +4975,56 @@
       <c r="O20" s="34">
         <v>0</v>
       </c>
-      <c r="P20" s="36">
+      <c r="P20" s="35">
         <v>1</v>
       </c>
       <c r="Q20" s="12">
         <v>0</v>
       </c>
-      <c r="R20" s="36" t="str">
-        <f t="shared" ref="R20:R21" si="1">F20&amp;" 입니다"</f>
+      <c r="R20" s="35" t="str">
+        <f t="shared" ref="R20:R23" si="1">F20&amp;" 입니다"</f>
         <v>초보자 활 입니다</v>
       </c>
-      <c r="S20" s="36">
-        <v>25</v>
-      </c>
-      <c r="T20" s="36">
-        <v>0</v>
-      </c>
-      <c r="U20" s="36">
-        <v>0</v>
-      </c>
-      <c r="V20" s="36">
-        <v>0</v>
-      </c>
-      <c r="W20" s="36" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="36">
+      <c r="S20" s="35">
+        <v>10</v>
+      </c>
+      <c r="T20" s="35">
+        <v>0</v>
+      </c>
+      <c r="U20" s="35">
+        <v>0</v>
+      </c>
+      <c r="V20" s="35">
+        <v>0</v>
+      </c>
+      <c r="W20" s="35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="35">
         <v>20201</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>164</v>
-      </c>
       <c r="G21" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="I21" s="36" t="s">
-        <v>92</v>
+        <v>137</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="J21" s="34">
         <v>0</v>
@@ -5045,30 +5045,30 @@
       <c r="O21" s="34">
         <v>0</v>
       </c>
-      <c r="P21" s="36">
+      <c r="P21" s="35">
         <v>1</v>
       </c>
       <c r="Q21" s="12">
         <v>0</v>
       </c>
-      <c r="R21" s="36" t="str">
+      <c r="R21" s="35" t="str">
         <f t="shared" si="1"/>
         <v>명사수 활 입니다</v>
       </c>
-      <c r="S21" s="36">
+      <c r="S21" s="35">
         <v>25</v>
       </c>
-      <c r="T21" s="36">
-        <v>0</v>
-      </c>
-      <c r="U21" s="36">
-        <v>0</v>
-      </c>
-      <c r="V21" s="36">
-        <v>0</v>
-      </c>
-      <c r="W21" s="36" t="s">
-        <v>220</v>
+      <c r="T21" s="35">
+        <v>0</v>
+      </c>
+      <c r="U21" s="35">
+        <v>0</v>
+      </c>
+      <c r="V21" s="35">
+        <v>0</v>
+      </c>
+      <c r="W21" s="35" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5094,16 +5094,16 @@
         <v>80</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>71</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>78</v>
@@ -5127,16 +5127,16 @@
         <v>87</v>
       </c>
       <c r="S22" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="U22" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="T22" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="U22" s="8" t="s">
-        <v>170</v>
-      </c>
       <c r="V22" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="W22" s="8"/>
       <c r="X22" s="8"/>
@@ -5145,30 +5145,30 @@
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
     </row>
-    <row r="23" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="36">
+    <row r="23" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="35">
         <v>21001</v>
       </c>
-      <c r="C23" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>161</v>
+      <c r="C23" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>156</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="H23" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="I23" s="36" t="s">
-        <v>92</v>
+        <v>162</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="J23" s="34">
         <v>0</v>
@@ -5180,7 +5180,7 @@
       <c r="L23" s="34">
         <v>0</v>
       </c>
-      <c r="M23" s="36">
+      <c r="M23" s="35">
         <v>0</v>
       </c>
       <c r="N23" s="34">
@@ -5189,100 +5189,100 @@
       <c r="O23" s="34">
         <v>0</v>
       </c>
-      <c r="P23" s="36">
+      <c r="P23" s="35">
         <v>1</v>
       </c>
       <c r="Q23" s="12">
         <v>0</v>
       </c>
-      <c r="R23" s="36" t="str">
-        <f t="shared" ref="R23:R24" si="2">F23&amp;" 입니다"</f>
+      <c r="R23" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>모험가 헬멧 입니다</v>
       </c>
-      <c r="S23" s="36">
-        <v>0</v>
-      </c>
-      <c r="T23" s="36">
+      <c r="S23" s="35">
+        <v>0</v>
+      </c>
+      <c r="T23" s="35">
+        <v>5</v>
+      </c>
+      <c r="U23" s="35">
+        <v>0</v>
+      </c>
+      <c r="V23" s="35">
+        <v>0</v>
+      </c>
+      <c r="W23" s="35" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="35">
+        <v>21002</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" s="34">
+        <v>0</v>
+      </c>
+      <c r="K24" s="34">
+        <f t="shared" ref="K24" si="2">B24</f>
+        <v>21002</v>
+      </c>
+      <c r="L24" s="34">
+        <v>0</v>
+      </c>
+      <c r="M24" s="35">
+        <v>0</v>
+      </c>
+      <c r="N24" s="34">
+        <v>0</v>
+      </c>
+      <c r="O24" s="34">
+        <v>0</v>
+      </c>
+      <c r="P24" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="12">
+        <v>0</v>
+      </c>
+      <c r="R24" s="35" t="str">
+        <f t="shared" ref="R23:R24" si="3">F24&amp;" 입니다"</f>
+        <v>고급 헬멧 입니다</v>
+      </c>
+      <c r="S24" s="35">
+        <v>0</v>
+      </c>
+      <c r="T24" s="35">
         <v>10</v>
       </c>
-      <c r="U23" s="36">
-        <v>0</v>
-      </c>
-      <c r="V23" s="36">
-        <v>0</v>
-      </c>
-      <c r="W23" s="36" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="36">
-        <v>21002</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="H24" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="I24" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="J24" s="34">
-        <v>0</v>
-      </c>
-      <c r="K24" s="34">
-        <f t="shared" ref="K24" si="3">B24</f>
-        <v>21002</v>
-      </c>
-      <c r="L24" s="34">
-        <v>0</v>
-      </c>
-      <c r="M24" s="36">
-        <v>0</v>
-      </c>
-      <c r="N24" s="34">
-        <v>0</v>
-      </c>
-      <c r="O24" s="34">
-        <v>0</v>
-      </c>
-      <c r="P24" s="36">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="12">
-        <v>0</v>
-      </c>
-      <c r="R24" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v>고급 헬멧 입니다</v>
-      </c>
-      <c r="S24" s="36">
-        <v>0</v>
-      </c>
-      <c r="T24" s="36">
-        <v>0</v>
-      </c>
-      <c r="U24" s="36">
-        <v>0</v>
-      </c>
-      <c r="V24" s="36">
+      <c r="U24" s="35">
+        <v>0</v>
+      </c>
+      <c r="V24" s="35">
         <v>50</v>
       </c>
-      <c r="W24" s="36" t="s">
-        <v>222</v>
+      <c r="W24" s="35" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5308,16 +5308,16 @@
         <v>80</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>71</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>78</v>
@@ -5341,42 +5341,42 @@
         <v>87</v>
       </c>
       <c r="S25" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="T25" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="U25" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="T25" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="U25" s="8" t="s">
-        <v>170</v>
-      </c>
       <c r="V25" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="36">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="35">
         <v>22001</v>
       </c>
-      <c r="C26" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>161</v>
+      <c r="C26" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>156</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="H26" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="I26" s="36" t="s">
-        <v>92</v>
+        <v>191</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="J26" s="34">
         <v>0</v>
@@ -5388,7 +5388,7 @@
       <c r="L26" s="34">
         <v>0</v>
       </c>
-      <c r="M26" s="36">
+      <c r="M26" s="35">
         <v>0</v>
       </c>
       <c r="N26" s="34">
@@ -5397,56 +5397,56 @@
       <c r="O26" s="34">
         <v>0</v>
       </c>
-      <c r="P26" s="36">
+      <c r="P26" s="35">
         <v>1</v>
       </c>
       <c r="Q26" s="12">
         <v>0</v>
       </c>
-      <c r="R26" s="36" t="str">
+      <c r="R26" s="35" t="str">
         <f t="shared" ref="R26:R27" si="5">F26&amp;" 입니다"</f>
         <v>모험가 상의 입니다</v>
       </c>
-      <c r="S26" s="36">
-        <v>10</v>
-      </c>
-      <c r="T26" s="36">
-        <v>0</v>
-      </c>
-      <c r="U26" s="36">
-        <v>0</v>
-      </c>
-      <c r="V26" s="36">
-        <v>0</v>
-      </c>
-      <c r="W26" s="36" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="36">
+      <c r="S26" s="35">
+        <v>0</v>
+      </c>
+      <c r="T26" s="35">
+        <v>5</v>
+      </c>
+      <c r="U26" s="35">
+        <v>0</v>
+      </c>
+      <c r="V26" s="35">
+        <v>0</v>
+      </c>
+      <c r="W26" s="35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="35">
         <v>22002</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>192</v>
+      <c r="C27" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>187</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="I27" s="36" t="s">
-        <v>92</v>
+        <v>137</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="J27" s="34">
         <v>0</v>
@@ -5467,30 +5467,30 @@
       <c r="O27" s="34">
         <v>0</v>
       </c>
-      <c r="P27" s="36">
+      <c r="P27" s="35">
         <v>1</v>
       </c>
       <c r="Q27" s="12">
         <v>0</v>
       </c>
-      <c r="R27" s="36" t="str">
+      <c r="R27" s="35" t="str">
         <f t="shared" si="5"/>
         <v>고급 상의 입니다</v>
       </c>
-      <c r="S27" s="36">
-        <v>0</v>
-      </c>
-      <c r="T27" s="36">
+      <c r="S27" s="35">
+        <v>0</v>
+      </c>
+      <c r="T27" s="35">
         <v>10</v>
       </c>
-      <c r="U27" s="36">
-        <v>0</v>
-      </c>
-      <c r="V27" s="36">
-        <v>0</v>
-      </c>
-      <c r="W27" s="36" t="s">
-        <v>224</v>
+      <c r="U27" s="35">
+        <v>50</v>
+      </c>
+      <c r="V27" s="35">
+        <v>0</v>
+      </c>
+      <c r="W27" s="35" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -5516,16 +5516,16 @@
         <v>80</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>71</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>78</v>
@@ -5549,42 +5549,42 @@
         <v>87</v>
       </c>
       <c r="S28" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="T28" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="U28" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="T28" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="U28" s="8" t="s">
-        <v>170</v>
-      </c>
       <c r="V28" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="36">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="35">
         <v>23001</v>
       </c>
-      <c r="C29" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>199</v>
+      <c r="C29" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>194</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="I29" s="36" t="s">
-        <v>92</v>
+        <v>137</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="J29" s="34">
         <v>0</v>
@@ -5605,56 +5605,56 @@
       <c r="O29" s="34">
         <v>0</v>
       </c>
-      <c r="P29" s="36">
+      <c r="P29" s="35">
         <v>1</v>
       </c>
       <c r="Q29" s="12">
         <v>0</v>
       </c>
-      <c r="R29" s="36" t="str">
+      <c r="R29" s="35" t="str">
         <f t="shared" ref="R29:R30" si="7">F29&amp;" 입니다"</f>
         <v>모험가 신발 입니다</v>
       </c>
-      <c r="S29" s="36">
-        <v>0</v>
-      </c>
-      <c r="T29" s="36">
-        <v>0</v>
-      </c>
-      <c r="U29" s="36">
-        <v>0</v>
-      </c>
-      <c r="V29" s="36">
-        <v>50</v>
-      </c>
-      <c r="W29" s="36" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="36">
+      <c r="S29" s="35">
+        <v>5</v>
+      </c>
+      <c r="T29" s="35">
+        <v>0</v>
+      </c>
+      <c r="U29" s="35">
+        <v>0</v>
+      </c>
+      <c r="V29" s="35">
+        <v>0</v>
+      </c>
+      <c r="W29" s="35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="35">
         <v>23002</v>
       </c>
-      <c r="C30" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>200</v>
+      <c r="C30" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>195</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="H30" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="I30" s="36" t="s">
-        <v>92</v>
+        <v>137</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="I30" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="J30" s="34">
         <v>0</v>
@@ -5675,30 +5675,30 @@
       <c r="O30" s="34">
         <v>0</v>
       </c>
-      <c r="P30" s="36">
+      <c r="P30" s="35">
         <v>1</v>
       </c>
       <c r="Q30" s="12">
         <v>0</v>
       </c>
-      <c r="R30" s="36" t="str">
+      <c r="R30" s="35" t="str">
         <f t="shared" si="7"/>
         <v>고급 신발 입니다</v>
       </c>
-      <c r="S30" s="36">
+      <c r="S30" s="35">
         <v>10</v>
       </c>
-      <c r="T30" s="36">
-        <v>0</v>
-      </c>
-      <c r="U30" s="36">
-        <v>0</v>
-      </c>
-      <c r="V30" s="36">
-        <v>0</v>
-      </c>
-      <c r="W30" s="36" t="s">
-        <v>238</v>
+      <c r="T30" s="35">
+        <v>0</v>
+      </c>
+      <c r="U30" s="35">
+        <v>0</v>
+      </c>
+      <c r="V30" s="35">
+        <v>0</v>
+      </c>
+      <c r="W30" s="35" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5724,16 +5724,16 @@
         <v>80</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>71</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>78</v>
@@ -5757,16 +5757,16 @@
         <v>87</v>
       </c>
       <c r="S31" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="T31" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="U31" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="T31" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="U31" s="8" t="s">
-        <v>170</v>
-      </c>
       <c r="V31" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="W31" s="8"/>
       <c r="X31" s="8"/>
@@ -5775,30 +5775,30 @@
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
     </row>
-    <row r="32" spans="1:28" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="36">
+    <row r="32" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="35">
         <v>300</v>
       </c>
-      <c r="C32" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>146</v>
+      <c r="C32" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>142</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="H32" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="I32" s="36" t="s">
-        <v>92</v>
+        <v>137</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="I32" s="35" t="s">
+        <v>234</v>
       </c>
       <c r="J32" s="34">
         <v>0</v>
@@ -5819,56 +5819,56 @@
       <c r="O32" s="34">
         <v>0</v>
       </c>
-      <c r="P32" s="36">
+      <c r="P32" s="35">
         <v>1</v>
       </c>
       <c r="Q32" s="12">
         <v>0</v>
       </c>
-      <c r="R32" s="36" t="str">
+      <c r="R32" s="35" t="str">
         <f t="shared" ref="R32:R37" si="8">F32&amp;" 입니다"</f>
         <v>하의1 입니다</v>
       </c>
-      <c r="S32" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="T32" s="36">
-        <v>0</v>
-      </c>
-      <c r="U32" s="36">
-        <v>0</v>
-      </c>
-      <c r="V32" s="36">
-        <v>0</v>
-      </c>
-      <c r="W32" s="36" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="36">
+      <c r="S32" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="T32" s="35">
+        <v>0</v>
+      </c>
+      <c r="U32" s="35">
+        <v>0</v>
+      </c>
+      <c r="V32" s="35">
+        <v>0</v>
+      </c>
+      <c r="W32" s="35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="35">
         <v>301</v>
       </c>
-      <c r="C33" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>146</v>
+      <c r="C33" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>142</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="H33" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="I33" s="36" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>234</v>
       </c>
       <c r="J33" s="34">
         <v>0</v>
@@ -5889,56 +5889,56 @@
       <c r="O33" s="34">
         <v>0</v>
       </c>
-      <c r="P33" s="36">
+      <c r="P33" s="35">
         <v>1</v>
       </c>
       <c r="Q33" s="12">
         <v>0</v>
       </c>
-      <c r="R33" s="36" t="str">
+      <c r="R33" s="35" t="str">
         <f t="shared" si="8"/>
         <v>하의2 입니다</v>
       </c>
-      <c r="S33" s="36" t="s">
+      <c r="S33" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="T33" s="36">
+      <c r="T33" s="35">
         <v>1</v>
       </c>
-      <c r="U33" s="36">
-        <v>0</v>
-      </c>
-      <c r="V33" s="36">
-        <v>0</v>
-      </c>
-      <c r="W33" s="36" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="36">
+      <c r="U33" s="35">
+        <v>0</v>
+      </c>
+      <c r="V33" s="35">
+        <v>0</v>
+      </c>
+      <c r="W33" s="35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="35">
         <v>302</v>
       </c>
-      <c r="C34" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>146</v>
+      <c r="C34" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>142</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="H34" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="I34" s="36" t="s">
-        <v>145</v>
+        <v>137</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>234</v>
       </c>
       <c r="J34" s="34">
         <v>0</v>
@@ -5959,56 +5959,56 @@
       <c r="O34" s="34">
         <v>0</v>
       </c>
-      <c r="P34" s="36">
+      <c r="P34" s="35">
         <v>1</v>
       </c>
       <c r="Q34" s="12">
         <v>0</v>
       </c>
-      <c r="R34" s="36" t="str">
+      <c r="R34" s="35" t="str">
         <f t="shared" si="8"/>
         <v>하의3 입니다</v>
       </c>
-      <c r="S34" s="36" t="s">
+      <c r="S34" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="T34" s="36">
+      <c r="T34" s="35">
         <v>1</v>
       </c>
-      <c r="U34" s="36">
-        <v>0</v>
-      </c>
-      <c r="V34" s="36">
-        <v>0</v>
-      </c>
-      <c r="W34" s="36" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="36">
+      <c r="U34" s="35">
+        <v>0</v>
+      </c>
+      <c r="V34" s="35">
+        <v>0</v>
+      </c>
+      <c r="W34" s="35" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="35">
         <v>303</v>
       </c>
-      <c r="C35" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>146</v>
+      <c r="C35" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>142</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="H35" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="I35" s="36" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="I35" s="35" t="s">
+        <v>234</v>
       </c>
       <c r="J35" s="34">
         <v>0</v>
@@ -6029,56 +6029,56 @@
       <c r="O35" s="34">
         <v>0</v>
       </c>
-      <c r="P35" s="36">
+      <c r="P35" s="35">
         <v>1</v>
       </c>
       <c r="Q35" s="12">
         <v>0</v>
       </c>
-      <c r="R35" s="36" t="str">
+      <c r="R35" s="35" t="str">
         <f t="shared" si="8"/>
         <v>하의4 입니다</v>
       </c>
-      <c r="S35" s="36" t="s">
+      <c r="S35" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="T35" s="36">
+      <c r="T35" s="35">
         <v>1</v>
       </c>
-      <c r="U35" s="36">
-        <v>0</v>
-      </c>
-      <c r="V35" s="36">
-        <v>0</v>
-      </c>
-      <c r="W35" s="36" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="36">
+      <c r="U35" s="35">
+        <v>0</v>
+      </c>
+      <c r="V35" s="35">
+        <v>0</v>
+      </c>
+      <c r="W35" s="35" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="35">
         <v>304</v>
       </c>
-      <c r="C36" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36" s="36" t="s">
-        <v>146</v>
+      <c r="C36" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>142</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="H36" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="I36" s="36" t="s">
-        <v>160</v>
+        <v>137</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="I36" s="35" t="s">
+        <v>234</v>
       </c>
       <c r="J36" s="34">
         <v>0</v>
@@ -6099,56 +6099,56 @@
       <c r="O36" s="34">
         <v>0</v>
       </c>
-      <c r="P36" s="36">
+      <c r="P36" s="35">
         <v>1</v>
       </c>
       <c r="Q36" s="12">
         <v>0</v>
       </c>
-      <c r="R36" s="36" t="str">
+      <c r="R36" s="35" t="str">
         <f t="shared" si="8"/>
         <v>하의5 입니다</v>
       </c>
-      <c r="S36" s="36" t="s">
+      <c r="S36" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="T36" s="36">
+      <c r="T36" s="35">
         <v>1</v>
       </c>
-      <c r="U36" s="36">
-        <v>0</v>
-      </c>
-      <c r="V36" s="36">
-        <v>0</v>
-      </c>
-      <c r="W36" s="36" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="36">
+      <c r="U36" s="35">
+        <v>0</v>
+      </c>
+      <c r="V36" s="35">
+        <v>0</v>
+      </c>
+      <c r="W36" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="35">
         <v>305</v>
       </c>
-      <c r="C37" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>146</v>
+      <c r="C37" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>142</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="H37" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="I37" s="36" t="s">
-        <v>90</v>
+        <v>137</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>234</v>
       </c>
       <c r="J37" s="34">
         <v>0</v>
@@ -6169,33 +6169,33 @@
       <c r="O37" s="34">
         <v>0</v>
       </c>
-      <c r="P37" s="36">
+      <c r="P37" s="35">
         <v>1</v>
       </c>
       <c r="Q37" s="12">
         <v>0</v>
       </c>
-      <c r="R37" s="36" t="str">
+      <c r="R37" s="35" t="str">
         <f t="shared" si="8"/>
         <v>하의6 입니다</v>
       </c>
-      <c r="S37" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="T37" s="36">
+      <c r="S37" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="T37" s="35">
         <v>1</v>
       </c>
-      <c r="U37" s="36">
-        <v>0</v>
-      </c>
-      <c r="V37" s="36">
-        <v>0</v>
-      </c>
-      <c r="W37" s="36" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U37" s="35">
+        <v>0</v>
+      </c>
+      <c r="V37" s="35">
+        <v>0</v>
+      </c>
+      <c r="W37" s="35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
         <v>89</v>
       </c>
@@ -6251,16 +6251,16 @@
         <v>80</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>71</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>78</v>
@@ -6299,30 +6299,30 @@
       <c r="AB39" s="8"/>
     </row>
     <row r="40" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="39"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="13">
         <v>10001</v>
       </c>
-      <c r="C40" s="36" t="s">
-        <v>176</v>
+      <c r="C40" s="35" t="s">
+        <v>171</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="G40" s="40" t="s">
-        <v>158</v>
+        <v>168</v>
+      </c>
+      <c r="G40" s="39" t="s">
+        <v>154</v>
       </c>
       <c r="H40" s="13">
         <v>0</v>
       </c>
       <c r="I40" s="35" t="s">
-        <v>136</v>
+        <v>235</v>
       </c>
       <c r="J40" s="13">
         <v>0</v>
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N40" s="16">
         <v>0</v>
@@ -6349,7 +6349,7 @@
         <v>0</v>
       </c>
       <c r="R40" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S40" s="34">
         <v>100</v>
@@ -6367,30 +6367,30 @@
       <c r="AB40" s="13"/>
     </row>
     <row r="41" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="39"/>
-      <c r="B41" s="36">
+      <c r="A41" s="38"/>
+      <c r="B41" s="35">
         <v>10002</v>
       </c>
-      <c r="C41" s="36" t="s">
-        <v>176</v>
+      <c r="C41" s="35" t="s">
+        <v>171</v>
       </c>
       <c r="D41" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E41" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="G41" s="40" t="s">
-        <v>158</v>
+      <c r="G41" s="39" t="s">
+        <v>154</v>
       </c>
       <c r="H41" s="13">
         <v>0</v>
       </c>
       <c r="I41" s="35" t="s">
-        <v>145</v>
+        <v>235</v>
       </c>
       <c r="J41" s="13">
         <v>0</v>
@@ -6402,12 +6402,12 @@
         <v>0</v>
       </c>
       <c r="M41" s="20" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N41" s="16">
         <v>0</v>
       </c>
-      <c r="O41" s="36">
+      <c r="O41" s="35">
         <v>1</v>
       </c>
       <c r="P41" s="13">
@@ -6416,8 +6416,8 @@
       <c r="Q41" s="13">
         <v>0</v>
       </c>
-      <c r="R41" s="36" t="s">
-        <v>98</v>
+      <c r="R41" s="35" t="s">
+        <v>97</v>
       </c>
       <c r="S41" s="34">
         <v>0</v>
@@ -6434,7 +6434,7 @@
       <c r="AA41" s="13"/>
       <c r="AB41" s="13"/>
     </row>
-    <row r="42" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
         <v>89</v>
       </c>
@@ -6469,7 +6469,7 @@
     </row>
     <row r="43" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>70</v>
@@ -6490,16 +6490,16 @@
         <v>80</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>71</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L43" s="8" t="s">
         <v>78</v>
@@ -6523,33 +6523,33 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="39"/>
-      <c r="B44" s="36">
+    <row r="44" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="38"/>
+      <c r="B44" s="35">
         <v>30001</v>
       </c>
-      <c r="C44" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="D44" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="E44" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="F44" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="G44" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="H44" s="36">
+      <c r="C44" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="F44" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="G44" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="H44" s="35">
         <v>0</v>
       </c>
       <c r="I44" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="J44" s="36">
+        <v>235</v>
+      </c>
+      <c r="J44" s="35">
         <v>0</v>
       </c>
       <c r="K44" s="34">
@@ -6558,23 +6558,23 @@
       <c r="L44" s="34">
         <v>0</v>
       </c>
-      <c r="M44" s="36" t="s">
-        <v>157</v>
+      <c r="M44" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="N44" s="34">
         <v>1</v>
       </c>
-      <c r="O44" s="36">
-        <v>0</v>
-      </c>
-      <c r="P44" s="36">
+      <c r="O44" s="35">
+        <v>0</v>
+      </c>
+      <c r="P44" s="35">
         <v>1</v>
       </c>
-      <c r="Q44" s="36">
-        <v>0</v>
-      </c>
-      <c r="R44" s="36" t="s">
-        <v>188</v>
+      <c r="Q44" s="35">
+        <v>0</v>
+      </c>
+      <c r="R44" s="35" t="s">
+        <v>183</v>
       </c>
       <c r="S44" s="34"/>
       <c r="T44" s="34"/>
@@ -6585,7 +6585,7 @@
     </row>
     <row r="45" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -6638,16 +6638,16 @@
         <v>80</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>71</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L46" s="8" t="s">
         <v>78</v>
@@ -6671,13 +6671,13 @@
         <v>87</v>
       </c>
       <c r="S46" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="T46" s="8" t="s">
         <v>88</v>
       </c>
       <c r="U46" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V46" s="8"/>
       <c r="W46" s="8"/>
@@ -6687,41 +6687,41 @@
       <c r="AA46" s="8"/>
       <c r="AB46" s="8"/>
     </row>
-    <row r="47" spans="1:29" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="36">
+    <row r="47" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="35">
         <v>40001</v>
       </c>
-      <c r="C47" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="D47" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="F47" s="36" t="s">
-        <v>168</v>
+      <c r="C47" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>163</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="H47" s="36">
-        <v>0</v>
-      </c>
-      <c r="I47" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="J47" s="36">
-        <v>0</v>
-      </c>
-      <c r="K47" s="36">
+        <v>137</v>
+      </c>
+      <c r="H47" s="35">
+        <v>0</v>
+      </c>
+      <c r="I47" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="J47" s="35">
+        <v>0</v>
+      </c>
+      <c r="K47" s="35">
         <v>40001</v>
       </c>
-      <c r="L47" s="36">
-        <v>0</v>
-      </c>
-      <c r="M47" s="36">
+      <c r="L47" s="35">
+        <v>0</v>
+      </c>
+      <c r="M47" s="35">
         <v>0</v>
       </c>
       <c r="N47" s="34">
@@ -6736,16 +6736,16 @@
       <c r="Q47" s="34">
         <v>1</v>
       </c>
-      <c r="R47" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="S47" s="36">
+      <c r="R47" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="S47" s="35">
         <v>10</v>
       </c>
-      <c r="T47" s="36" t="s">
+      <c r="T47" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="U47" s="36">
+      <c r="U47" s="35">
         <v>1</v>
       </c>
     </row>
@@ -6773,16 +6773,16 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>

--- a/_Excel/ItemTablev1.0.7.xlsx
+++ b/_Excel/ItemTablev1.0.7.xlsx
@@ -2365,7 +2365,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="249">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="254">
+  <x:si>
+    <x:t>Sword6_R</x:t>
+  </x:si>
   <x:si>
     <x:t>도움말을 여기에 넣어주세요.</x:t>
   </x:si>
@@ -2376,469 +2379,481 @@
     <x:t>label(stbody)</x:t>
   </x:si>
   <x:si>
+    <x:t>label(etcpart)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동 의상 랜덤박스(4101)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>label(usepart)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돌 조각 랜덤박스(4000)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돌 의상 랜덤박스(4100)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fameofdealok</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금 의상 랜덤박스(4103)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>label(wearpart)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fameoffreshfail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>은 의상 랜덤박스(4102)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>label(coinpart)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>label(dealinfo)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>label(tooltip)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>label(monster)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헬멧(1) ~ 양말(13)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&gt;10level + 20</x:t>
+  </x:si>
+  <x:si>
     <x:t>초과 달성 배럴 (%)</x:t>
   </x:si>
   <x:si>
-    <x:t>label(wearpart)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>label(dealinfo)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돌 조각 랜덤박스(4000)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fameofdealok</x:t>
-  </x:si>
-  <x:si>
-    <x:t>동 의상 랜덤박스(4101)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>label(tooltip)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헬멧(1) ~ 양말(13)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fameoffreshfail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>label(monster)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>label(usepart)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>label(etcpart)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돌 의상 랜덤박스(4100)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&gt;10level + 20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>label(coinpart)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금 의상 랜덤박스(4103)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>은 의상 랜덤박스(4102)</x:t>
+    <x:t>Sword1_R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cow_bi_03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cow_bh_04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cow_bh_06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>discount</x:t>
   </x:si>
   <x:si>
     <x:t>cow_bh_03</x:t>
   </x:si>
   <x:si>
-    <x:t>cow_bh_04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>discount</x:t>
-  </x:si>
-  <x:si>
     <x:t>cow_bi_04</x:t>
   </x:si>
   <x:si>
+    <x:t>cow_bj_05</x:t>
+  </x:si>
+  <x:si>
     <x:t>itemcode</x:t>
   </x:si>
   <x:si>
-    <x:t>cow_bi_03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cow_bj_05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cow_bh_06</x:t>
-  </x:si>
-  <x:si>
     <x:t>cow_bj_03</x:t>
   </x:si>
   <x:si>
+    <x:t>cow_bi_05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cow_b_05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cow_b_02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cow_b_01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cow_bi_06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우유 만족 명성도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cow_bg_06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cow_bj_02</x:t>
+  </x:si>
+  <x:si>
     <x:t>cow_bj_06</x:t>
   </x:si>
   <x:si>
+    <x:t>subcategory</x:t>
+  </x:si>
+  <x:si>
+    <x:t>atlasname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cow_b_04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cow_bg_03</x:t>
+  </x:si>
+  <x:si>
     <x:t>cow_bi_02</x:t>
   </x:si>
   <x:si>
-    <x:t>category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cow_bi_06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cow_bi_05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cow_bj_02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cow_bg_03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cow_b_05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cow_b_04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우유 만족 명성도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cow_b_02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>subcategory</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cow_b_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>atlasname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cow_bg_06</x:t>
+    <x:t>모험가 상의 입니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&gt;level*6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&gt;level*0.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초보자 검 입니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>// 상인 거래 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우유 수량 불만족</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초보자 지팡이 입니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cow_bg_05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>itemname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모험가 헬멧 입니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모험가 신발 입니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cow_bg_04</x:t>
   </x:si>
   <x:si>
     <x:t>animal_00</x:t>
   </x:si>
   <x:si>
-    <x:t>// 상인 거래 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&gt;level*0.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>itemname</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&gt;level*6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우유 수량 불만족</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cow_bg_04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cow_bg_05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모험가 헬멧 입니다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모험가 상의 입니다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모험가 신발 입니다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초보자 검 입니다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초보자 지팡이 입니다</x:t>
+    <x:t>cow_b_03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cow_bg_02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>표창장받는 거래횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초보자 활 입니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cow_b_06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고급 상의 입니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고급 신발 입니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cow_bh_05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&gt;level*1.8</x:t>
   </x:si>
   <x:si>
     <x:t>cow_bg_01</x:t>
   </x:si>
   <x:si>
+    <x:t>cow_bj_04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>용사의 검 입니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법사 지팡이 입니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cow_bh_02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>명사수 활 입니다</x:t>
+  </x:si>
+  <x:si>
     <x:t>고급 헬멧 입니다</x:t>
   </x:si>
   <x:si>
-    <x:t>cow_bh_05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cow_bh_02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cow_b_03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cow_b_06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cow_bj_04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cow_bg_02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>표창장받는 거래횟수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고급 상의 입니다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>명사수 활 입니다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고급 신발 입니다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>용사의 검 입니다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초보자 활 입니다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법사 지팡이 입니다</x:t>
+    <x:t>MP를 100회복</x:t>
+  </x:si>
+  <x:si>
+    <x:t>레어 등급(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>에픽 등급(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>playerlv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>activate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cow_bj_01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>multistate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HP를 100회복</x:t>
+  </x:si>
+  <x:si>
+    <x:t>buyamount</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">           </x:t>
+  </x:si>
+  <x:si>
+    <x:t>cashcost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신화 등급(3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&gt;level*3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sword6_L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sword1_L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gamecost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>monster_01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sellcost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐쉬가격(다이아)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>//몬스터 데이터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cow_bi_01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타인벤(60)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 등급(0)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>equpslot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>monster_02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lvupitem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타템(510)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lvupitemcnt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>//소모템 리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cow_bh_01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하의2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하의5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>//</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tip</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하의1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>def</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하의3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>att</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이콘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하의6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하의4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>exp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매</x:t>
   </x:si>
   <x:si>
     <x:t>필수(50000 ~ 59999(관리자가 입력:테이블사용불가)</x:t>
   </x:si>
   <x:si>
-    <x:t>&gt;level*1.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>에픽 등급(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&gt;level*3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sword1_L</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">           </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sword6_L</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HP를 100회복</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신화 등급(3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>레어 등급(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MP를 100회복</x:t>
-  </x:si>
-  <x:si>
-    <x:t>playerlv</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gamecost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>activate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cow_bj_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>multistate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>buyamount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cashcost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>equpslot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 등급(0)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>monster_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>//소모템 리스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타템(510)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cow_bh_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타인벤(60)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>monster_02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>//몬스터 데이터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lvupitemcnt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cow_bi_01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lvupitem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sellcost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐쉬가격(다이아)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>att</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하의1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하의4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>exp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tip</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이콘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>//</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하의5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>def</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하의6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하의2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하의3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a5</x:t>
+    <x:t>fameofbarrelfail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xxx100 -&gt;    1/100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도움말을 여기에 넣어주세요5.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도움말을 여기에 넣어주세요2.</x:t>
   </x:si>
   <x:si>
     <x:t>//label(version)</x:t>
   </x:si>
   <x:si>
-    <x:t>도움말을 여기에 넣어주세요2.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도움말을 여기에 넣어주세요5.</x:t>
+    <x:t>xxx1000 -&gt; 1/ 1000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>presentablecount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>티타늄 의상 랜덤박스(4104)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도움말을 여기에 넣어주세요3.</x:t>
   </x:si>
   <x:si>
     <x:t>도움말을 여기에 넣어주세요4.</x:t>
   </x:si>
   <x:si>
-    <x:t>xxx1000 -&gt; 1/ 1000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fameofbarrelfail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도움말을 여기에 넣어주세요3.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>티타늄 의상 랜덤박스(4104)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xxx100 -&gt;    1/100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>presentablecount</x:t>
+    <x:t>skin2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1회구매수량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단일가격</x:t>
   </x:si>
   <x:si>
     <x:t>stcode</x:t>
   </x:si>
   <x:si>
+    <x:t>level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>grade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>toplist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>//정보수집용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상단게시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이템 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이템 코드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세일여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무늬 정보</x:t>
+  </x:si>
+  <x:si>
     <x:t>version</x:t>
   </x:si>
   <x:si>
-    <x:t>단일가격</x:t>
-  </x:si>
-  <x:si>
     <x:t>사용 여부</x:t>
   </x:si>
   <x:si>
+    <x:t>서브 카테고리</x:t>
+  </x:si>
+  <x:si>
     <x:t>syscode</x:t>
   </x:si>
   <x:si>
-    <x:t>세일여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서브 카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>grade</x:t>
+    <x:t>신선도 불만족</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이템 설명</x:t>
   </x:si>
   <x:si>
     <x:t>icon</x:t>
   </x:si>
   <x:si>
-    <x:t>아이템 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>toplist</x:t>
-  </x:si>
-  <x:si>
-    <x:t>//정보수집용</x:t>
-  </x:si>
-  <x:si>
     <x:t>카테고리</x:t>
   </x:si>
   <x:si>
-    <x:t>신선도 불만족</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이템 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1회구매수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상단게시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이템 코드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무늬 정보</x:t>
+    <x:t>param3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>param5</x:t>
   </x:si>
   <x:si>
     <x:t>param6</x:t>
@@ -2847,271 +2862,271 @@
     <x:t>장착 슬롯</x:t>
   </x:si>
   <x:si>
+    <x:t>plusatt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>멀티템(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>명사수 활</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장착템(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소모품(40)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>count</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장착인벤(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매요구 레벨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>plusmp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타템1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보용(60)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소비인벤(3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>param7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다이아(50)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상점용(1)</x:t>
+  </x:si>
+  <x:si>
     <x:t>모험가 헬멧</x:t>
   </x:si>
   <x:si>
-    <x:t>다이아(50)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상점용(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>plusatt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>param5</x:t>
+    <x:t>moncode</x:t>
   </x:si>
   <x:si>
     <x:t>없음(-1)</x:t>
   </x:si>
   <x:si>
-    <x:t>param3</x:t>
+    <x:t>없음(0)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단일템(0)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>param8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마법사 지팡이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하의(3)</x:t>
   </x:si>
   <x:si>
     <x:t>param4</x:t>
   </x:si>
   <x:si>
-    <x:t>없음(0)</x:t>
-  </x:si>
-  <x:si>
     <x:t>더미파트</x:t>
   </x:si>
   <x:si>
-    <x:t>moncode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>count</x:t>
-  </x:si>
-  <x:si>
-    <x:t>param7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보용(60)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>멀티템(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소모품(40)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소비인벤(3)</x:t>
-  </x:si>
-  <x:si>
     <x:t>일반(1)</x:t>
   </x:si>
   <x:si>
     <x:t>lvup</x:t>
   </x:si>
   <x:si>
-    <x:t>단일템(0)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장착템(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타템1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>param8</x:t>
-  </x:si>
-  <x:si>
     <x:t>param1</x:t>
   </x:si>
   <x:si>
-    <x:t>plusmp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장착인벤(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마법사 지팡이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하의(3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매요구 레벨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>명사수 활</x:t>
+    <x:t>기타템(3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>용사의 검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모험가 신발</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고급 상의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조각템(15)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>활(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>물약(40)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조각인벤(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>param2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>코인(30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검(0)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>plushp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파란 포션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고급 헬멧</x:t>
   </x:si>
   <x:si>
     <x:t>고급 신발</x:t>
   </x:si>
   <x:si>
-    <x:t>용사의 검</x:t>
+    <x:t>plusdef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초보자 활</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상의(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초보자 검</x:t>
+  </x:si>
+  <x:si>
+    <x:t>소모품(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>완드(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>완드(3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>골드(4)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>헬멧(0)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>param9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>활(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>not(0)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초보자 지팡이</x:t>
   </x:si>
   <x:si>
     <x:t>신발(3)</x:t>
   </x:si>
   <x:si>
+    <x:t>모험가 상의</x:t>
+  </x:si>
+  <x:si>
     <x:t>무기(2)</x:t>
   </x:si>
   <x:si>
-    <x:t>고급 헬멧</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초보자 지팡이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모험가 신발</x:t>
-  </x:si>
-  <x:si>
-    <x:t>param2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>소모품(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타템(3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고급 상의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>코인(30)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모험가 상의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검(0)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>param9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>물약(40)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>헬멧(0)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>활(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>완드(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>plusdef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조각템(15)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초보자 활</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상의(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>골드(4)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>초보자 검</x:t>
-  </x:si>
-  <x:si>
-    <x:t>활(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>완드(3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>not(0)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조각인벤(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>plushp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파란 포션</x:t>
+    <x:t>빨간 포션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하의1 입니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shoe3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crown3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>skin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하의3 입니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하의2 입니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Belt4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cloth7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Belt1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crown4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wand1_R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cloth6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Belt6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wand2_R</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shoe6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하의6 입니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Belt3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하의4 입니다</x:t>
   </x:si>
   <x:si>
     <x:t>신발(6)</x:t>
   </x:si>
   <x:si>
-    <x:t>하의3 입니다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하의6 입니다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Belt4</x:t>
-  </x:si>
-  <x:si>
     <x:t>Belt2</x:t>
   </x:si>
   <x:si>
-    <x:t>하의1 입니다</x:t>
+    <x:t>Bow2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하의5 입니다</x:t>
   </x:si>
   <x:si>
     <x:t>아머(5)</x:t>
   </x:si>
   <x:si>
-    <x:t>하의5 입니다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cloth6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bow2</x:t>
-  </x:si>
-  <x:si>
     <x:t>Belt5</x:t>
   </x:si>
   <x:si>
-    <x:t>Wand1_R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crown4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shoe6</x:t>
-  </x:si>
-  <x:si>
     <x:t>Bow1</x:t>
   </x:si>
   <x:si>
-    <x:t>Belt6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crown3</x:t>
-  </x:si>
-  <x:si>
     <x:t>헤드(4)</x:t>
   </x:si>
   <x:si>
-    <x:t>Belt3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빨간 포션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shoe3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wand2_R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cloth7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Belt1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>skin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하의2 입니다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하의4 입니다</x:t>
+    <x:t>X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -5080,13 +5095,13 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="9" t="s">
-        <x:v>9</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B1" s="9" t="s">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C1" s="9" t="s">
-        <x:v>114</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:3">
@@ -5094,7 +5109,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C2" s="9" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:3">
@@ -5102,7 +5117,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C3" s="9" t="s">
-        <x:v>129</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:3">
@@ -5110,7 +5125,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C4" s="9" t="s">
-        <x:v>134</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:3">
@@ -5118,7 +5133,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C5" s="9" t="s">
-        <x:v>131</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:3">
@@ -5126,7 +5141,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C6" s="9" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5180,46 +5195,46 @@
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="21" t="s">
-        <x:v>45</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B1" s="21"/>
       <x:c r="C1" s="22" t="s">
-        <x:v>38</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D1" s="22" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E1" s="22" t="s">
-        <x:v>151</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F1" s="22" t="s">
-        <x:v>65</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G1" s="22" t="s">
-        <x:v>3</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="27" t="s">
-        <x:v>5</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B2" s="27" t="s">
-        <x:v>142</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C2" s="24" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2" s="24" t="s">
-        <x:v>133</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E2" s="24" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F2" s="24" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G2" s="24" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:7">
@@ -5244,11 +5259,11 @@
     </x:row>
     <x:row r="4" spans="1:10">
       <x:c r="A4" s="28" t="s">
-        <x:v>119</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B4" s="28"/>
       <x:c r="C4" s="28" t="s">
-        <x:v>157</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D4" s="28"/>
       <x:c r="E4" s="28"/>
@@ -5260,34 +5275,34 @@
     </x:row>
     <x:row r="5" spans="1:10">
       <x:c r="A5" s="29" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="27" t="s">
-        <x:v>142</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C5" s="29" t="s">
-        <x:v>138</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D5" s="29" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="E5" s="29" t="s">
-        <x:v>124</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F5" s="29" t="s">
-        <x:v>105</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G5" s="29" t="s">
-        <x:v>107</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="H5" s="29" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="I5" s="29" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="I5" s="29" t="s">
-        <x:v>127</x:v>
-      </x:c>
       <x:c r="J5" s="29" t="s">
-        <x:v>116</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:10">
@@ -5298,25 +5313,25 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="D6" s="30" t="s">
-        <x:v>44</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E6" s="30" t="s">
-        <x:v>41</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F6" s="30" t="s">
-        <x:v>39</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G6" s="30" t="s">
-        <x:v>61</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H6" s="30" t="s">
-        <x:v>37</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I6" s="30" t="s">
-        <x:v>36</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J6" s="30" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10">
@@ -5327,25 +5342,25 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="D7" s="30" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E7" s="30" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="F7" s="30" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G7" s="30" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="E7" s="30" t="s">
+      <x:c r="H7" s="30" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="F7" s="30" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="G7" s="30" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H7" s="30" t="s">
-        <x:v>50</x:v>
-      </x:c>
       <x:c r="I7" s="30" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J7" s="30" t="s">
-        <x:v>43</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10">
@@ -5356,25 +5371,25 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="D8" s="30" t="s">
-        <x:v>44</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E8" s="30" t="s">
-        <x:v>95</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F8" s="30" t="s">
-        <x:v>60</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G8" s="30" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H8" s="30" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I8" s="30" t="s">
-        <x:v>59</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="J8" s="30" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:10">
@@ -5385,25 +5400,25 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="D9" s="30" t="s">
-        <x:v>44</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E9" s="30" t="s">
-        <x:v>101</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F9" s="30" t="s">
-        <x:v>30</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G9" s="30" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H9" s="30" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I9" s="30" t="s">
-        <x:v>33</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J9" s="30" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:10">
@@ -5414,30 +5429,30 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="D10" s="30" t="s">
-        <x:v>44</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E10" s="30" t="s">
-        <x:v>86</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F10" s="30" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G10" s="30" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H10" s="30" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="I10" s="30" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="H10" s="30" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="I10" s="30" t="s">
-        <x:v>26</x:v>
-      </x:c>
       <x:c r="J10" s="30" t="s">
-        <x:v>29</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:27" s="22" customFormat="1">
       <x:c r="A11" s="22" t="s">
-        <x:v>98</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="S11" s="25"/>
       <x:c r="T11" s="25"/>
@@ -5451,13 +5466,13 @@
     </x:row>
     <x:row r="12" spans="1:18" s="22" customFormat="1">
       <x:c r="A12" s="22" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B12" s="22" t="s">
-        <x:v>170</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C12" s="22" t="s">
-        <x:v>146</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="J12" s="25"/>
       <x:c r="K12" s="25"/>
@@ -5475,7 +5490,7 @@
         <x:v>80400</x:v>
       </x:c>
       <x:c r="C13" s="32" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="J13" s="25"/>
       <x:c r="K13" s="25"/>
@@ -5493,7 +5508,7 @@
         <x:v>80401</x:v>
       </x:c>
       <x:c r="C14" s="32" t="s">
-        <x:v>97</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="J14" s="25"/>
       <x:c r="K14" s="25"/>
@@ -5558,9 +5573,9 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:AC47"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="0" ySplit="13" topLeftCell="I14" activePane="bottomLeft" state="frozen"/>
-      <x:selection pane="bottomLeft" activeCell="R7" activeCellId="0" sqref="R7:R7"/>
+    <x:sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:pane xSplit="0" ySplit="13" topLeftCell="H14" activePane="bottomLeft" state="frozen"/>
+      <x:selection pane="bottomLeft" activeCell="Y34" activeCellId="0" sqref="Y34:Y34"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="10.699999999999999"/>
@@ -5598,19 +5613,19 @@
   <x:sheetData>
     <x:row r="1" spans="1:28">
       <x:c r="A1" s="10" t="s">
-        <x:v>119</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B1" s="10"/>
       <x:c r="E1" s="10" t="s">
-        <x:v>168</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="F1" s="10"/>
       <x:c r="G1" s="10" t="s">
-        <x:v>168</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="H1" s="10"/>
       <x:c r="I1" s="35" t="s">
-        <x:v>91</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J1" s="10"/>
       <x:c r="K1" s="10"/>
@@ -5634,31 +5649,31 @@
     </x:row>
     <x:row r="2" spans="1:28">
       <x:c r="A2" s="10" t="s">
-        <x:v>119</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B2" s="17"/>
       <x:c r="C2" s="35" t="s">
-        <x:v>180</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D2" s="35" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E2" s="20" t="s">
-        <x:v>185</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F2" s="10"/>
       <x:c r="G2" s="10" t="s">
-        <x:v>162</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="H2" s="10"/>
       <x:c r="I2" s="35" t="s">
-        <x:v>81</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="J2" s="10"/>
       <x:c r="K2" s="10"/>
       <x:c r="L2" s="10"/>
       <x:c r="M2" s="10" t="s">
-        <x:v>179</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="N2" s="10"/>
       <x:c r="O2" s="10"/>
@@ -5678,30 +5693,30 @@
     </x:row>
     <x:row r="3" spans="1:28">
       <x:c r="A3" s="10" t="s">
-        <x:v>119</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C3" s="20" t="s">
-        <x:v>210</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D3" s="35" t="s">
-        <x:v>205</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="F3" s="10"/>
       <x:c r="G3" s="10"/>
       <x:c r="H3" s="35" t="s">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="I3" s="35" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="J3" s="10"/>
       <x:c r="K3" s="10"/>
       <x:c r="L3" s="10"/>
       <x:c r="M3" s="36" t="s">
-        <x:v>174</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="N3" s="10"/>
       <x:c r="O3" s="10"/>
@@ -5721,34 +5736,34 @@
     </x:row>
     <x:row r="4" spans="1:18" s="20" customFormat="1">
       <x:c r="A4" s="20" t="s">
-        <x:v>119</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D4" s="35" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E4" s="20" t="s">
         <x:v>176</x:v>
       </x:c>
       <x:c r="H4" s="34" t="s">
-        <x:v>212</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="I4" s="35" t="s">
-        <x:v>80</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="Q4" s="35"/>
       <x:c r="R4" s="35"/>
     </x:row>
     <x:row r="5" spans="1:25" s="20" customFormat="1">
       <x:c r="A5" s="20" t="s">
-        <x:v>119</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B5" s="17"/>
       <x:c r="D5" s="35"/>
       <x:c r="E5" s="35" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="H5" s="35" t="s">
-        <x:v>216</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="I5" s="35"/>
       <x:c r="Q5" s="35"/>
@@ -5762,14 +5777,14 @@
     </x:row>
     <x:row r="6" spans="1:25" s="20" customFormat="1">
       <x:c r="A6" s="20" t="s">
-        <x:v>119</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D6" s="35"/>
       <x:c r="E6" s="20" t="s">
-        <x:v>214</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="H6" s="35" t="s">
-        <x:v>217</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="I6" s="35"/>
       <x:c r="Q6" s="35"/>
@@ -5784,39 +5799,39 @@
     </x:row>
     <x:row r="7" spans="1:18" s="20" customFormat="1">
       <x:c r="A7" s="20" t="s">
-        <x:v>119</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B7" s="10">
         <x:v>4000</x:v>
       </x:c>
       <x:c r="C7" s="35" t="s">
-        <x:v>175</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D7" s="35"/>
       <x:c r="H7" s="20" t="s">
-        <x:v>239</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="Q7" s="35"/>
       <x:c r="R7" s="35"/>
     </x:row>
     <x:row r="8" spans="1:28">
       <x:c r="A8" s="10" t="s">
-        <x:v>119</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B8" s="35">
         <x:v>5000</x:v>
       </x:c>
       <x:c r="C8" s="35" t="s">
-        <x:v>161</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D8" s="35"/>
       <x:c r="E8" s="10"/>
       <x:c r="F8" s="20" t="s">
-        <x:v>77</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G8" s="10"/>
       <x:c r="H8" s="10" t="s">
-        <x:v>228</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="I8" s="10"/>
       <x:c r="J8" s="10"/>
@@ -5830,7 +5845,7 @@
       <x:c r="R8" s="13"/>
       <x:c r="S8" s="10"/>
       <x:c r="T8" s="10" t="s">
-        <x:v>136</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="U8" s="10"/>
       <x:c r="V8" s="10"/>
@@ -5843,10 +5858,10 @@
     </x:row>
     <x:row r="9" spans="1:28">
       <x:c r="A9" s="13" t="s">
-        <x:v>128</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B9" s="10" t="s">
-        <x:v>139</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C9" s="10"/>
       <x:c r="D9" s="10"/>
@@ -5854,7 +5869,7 @@
       <x:c r="F9" s="20"/>
       <x:c r="G9" s="10"/>
       <x:c r="H9" s="10" t="s">
-        <x:v>222</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="I9" s="10"/>
       <x:c r="J9" s="10"/>
@@ -5868,7 +5883,7 @@
       <x:c r="R9" s="13"/>
       <x:c r="S9" s="10"/>
       <x:c r="T9" s="10" t="s">
-        <x:v>132</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="U9" s="10"/>
       <x:c r="V9" s="10"/>
@@ -5881,7 +5896,7 @@
     </x:row>
     <x:row r="10" spans="1:28">
       <x:c r="A10" s="13" t="s">
-        <x:v>119</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B10" s="10">
         <x:v>100</x:v>
@@ -5903,40 +5918,40 @@
       <x:c r="Q10" s="13"/>
       <x:c r="R10" s="13"/>
       <x:c r="S10" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="T10" s="20" t="s">
-        <x:v>197</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="U10" s="20" t="s">
-        <x:v>166</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="V10" s="20" t="s">
-        <x:v>167</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="W10" s="20" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="X10" s="20" t="s">
-        <x:v>158</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="Y10" s="20" t="s">
-        <x:v>172</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="Z10" s="20" t="s">
-        <x:v>182</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="AA10" s="20" t="s">
-        <x:v>204</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="AB10" s="10"/>
     </x:row>
     <x:row r="11" spans="1:28">
       <x:c r="A11" s="10" t="s">
-        <x:v>119</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B11" s="14" t="s">
-        <x:v>72</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C11" s="14"/>
       <x:c r="D11" s="14"/>
@@ -5953,7 +5968,7 @@
       <x:c r="O11" s="14"/>
       <x:c r="P11" s="14"/>
       <x:c r="Q11" s="14" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="R11" s="14"/>
       <x:c r="S11" s="33"/>
@@ -5969,58 +5984,58 @@
     </x:row>
     <x:row r="12" spans="1:28">
       <x:c r="A12" s="10" t="s">
-        <x:v>119</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>156</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C12" s="10" t="s">
-        <x:v>150</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D12" s="10" t="s">
-        <x:v>144</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E12" s="10" t="s">
-        <x:v>159</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F12" s="10" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G12" s="10" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="H12" s="10" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="I12" s="10" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="J12" s="10" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="K12" s="10" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="L12" s="13" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="M12" s="10" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="N12" s="20" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="O12" s="10" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="P12" s="10" t="s">
         <x:v>141</x:v>
       </x:c>
-      <x:c r="H12" s="10" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="I12" s="10" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="J12" s="10" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="K12" s="10" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="L12" s="13" t="s">
-        <x:v>188</x:v>
-      </x:c>
-      <x:c r="M12" s="10" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="N12" s="20" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="O12" s="10" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="P12" s="10" t="s">
-        <x:v>154</x:v>
-      </x:c>
       <x:c r="Q12" s="13" t="s">
-        <x:v>121</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="R12" s="13" t="s">
-        <x:v>152</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="S12" s="19"/>
       <x:c r="T12" s="19"/>
@@ -6035,75 +6050,77 @@
     </x:row>
     <x:row r="13" spans="1:28" s="5" customFormat="1">
       <x:c r="A13" s="8" t="s">
-        <x:v>4</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C13" s="8" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D13" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E13" s="8" t="s">
-        <x:v>90</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F13" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G13" s="8" t="s">
-        <x:v>85</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H13" s="8" t="s">
-        <x:v>148</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="I13" s="8" t="s">
         <x:v>145</x:v>
       </x:c>
       <x:c r="J13" s="8" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K13" s="8" t="s">
-        <x:v>146</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="L13" s="8" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="M13" s="8" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="N13" s="8" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="O13" s="8" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="P13" s="8" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="M13" s="8" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="N13" s="8" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="O13" s="8" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="P13" s="8" t="s">
-        <x:v>88</x:v>
-      </x:c>
       <x:c r="Q13" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="R13" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="S13" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="T13" s="8" t="s">
         <x:v>209</x:v>
       </x:c>
       <x:c r="U13" s="8" t="s">
-        <x:v>220</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="V13" s="8" t="s">
-        <x:v>184</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="W13" s="8" t="s">
-        <x:v>246</x:v>
-      </x:c>
-      <x:c r="X13" s="8"/>
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="X13" s="8" t="s">
+        <x:v>140</x:v>
+      </x:c>
       <x:c r="Y13" s="8"/>
       <x:c r="Z13" s="8"/>
       <x:c r="AA13" s="8"/>
@@ -6115,25 +6132,25 @@
         <x:v>20001</x:v>
       </x:c>
       <x:c r="C14" s="13" t="s">
-        <x:v>180</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D14" s="35" t="s">
-        <x:v>193</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E14" s="20" t="s">
-        <x:v>185</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F14" s="16" t="s">
-        <x:v>215</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="G14" s="20" t="s">
-        <x:v>168</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="H14" s="16" t="s">
         <x:v>203</x:v>
       </x:c>
       <x:c r="I14" s="35" t="s">
-        <x:v>91</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J14" s="16">
         <x:v>0</x:v>
@@ -6177,9 +6194,11 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W14" s="13" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="X14" s="35"/>
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="X14" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="Y14" s="35"/>
       <x:c r="Z14" s="35"/>
       <x:c r="AA14" s="35"/>
@@ -6191,25 +6210,25 @@
         <x:v>20002</x:v>
       </x:c>
       <x:c r="C15" s="35" t="s">
-        <x:v>180</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D15" s="35" t="s">
-        <x:v>193</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E15" s="20" t="s">
-        <x:v>185</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F15" s="34" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="G15" s="20" t="s">
-        <x:v>168</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="H15" s="34" t="s">
         <x:v>203</x:v>
       </x:c>
       <x:c r="I15" s="35" t="s">
-        <x:v>91</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J15" s="16">
         <x:v>0</x:v>
@@ -6253,109 +6272,114 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W15" s="35" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="X15" s="35"/>
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="X15" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="Y15" s="35"/>
       <x:c r="Z15" s="35"/>
       <x:c r="AA15" s="35"/>
       <x:c r="AB15" s="13"/>
     </x:row>
-    <x:row r="16" spans="1:23" s="8" customFormat="1">
+    <x:row r="16" spans="1:24" s="8" customFormat="1">
       <x:c r="A16" s="8" t="s">
-        <x:v>4</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B16" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C16" s="8" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D16" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E16" s="8" t="s">
-        <x:v>90</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F16" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G16" s="8" t="s">
-        <x:v>85</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H16" s="8" t="s">
-        <x:v>148</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="I16" s="8" t="s">
         <x:v>145</x:v>
       </x:c>
       <x:c r="J16" s="8" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K16" s="8" t="s">
-        <x:v>146</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="L16" s="8" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="M16" s="8" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="N16" s="8" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="O16" s="8" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="P16" s="8" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="M16" s="8" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="N16" s="8" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="O16" s="8" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="P16" s="8" t="s">
-        <x:v>88</x:v>
-      </x:c>
       <x:c r="Q16" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="R16" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="S16" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="T16" s="8" t="s">
         <x:v>209</x:v>
       </x:c>
       <x:c r="U16" s="8" t="s">
-        <x:v>220</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="V16" s="8" t="s">
-        <x:v>184</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="W16" s="5" t="s">
-        <x:v>246</x:v>
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="X16" s="5" t="s">
+        <x:v>140</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="2:23" s="35" customFormat="1">
+    <x:row r="17" spans="2:24" s="35" customFormat="1">
       <x:c r="B17" s="35">
         <x:v>20101</x:v>
       </x:c>
       <x:c r="C17" s="35" t="s">
-        <x:v>180</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D17" s="35" t="s">
-        <x:v>193</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E17" s="20" t="s">
-        <x:v>185</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F17" s="34" t="s">
-        <x:v>195</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="G17" s="20" t="s">
-        <x:v>168</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="H17" s="35" t="s">
-        <x:v>208</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="I17" s="35" t="s">
-        <x:v>91</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J17" s="34">
         <x:v>0</x:v>
@@ -6398,33 +6422,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W17" s="35" t="s">
-        <x:v>243</x:v>
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="X17" s="35" t="s">
+        <x:v>252</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="2:23" s="35" customFormat="1">
+    <x:row r="18" spans="2:24" s="35" customFormat="1">
       <x:c r="B18" s="35">
         <x:v>20102</x:v>
       </x:c>
       <x:c r="C18" s="35" t="s">
-        <x:v>180</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D18" s="35" t="s">
-        <x:v>193</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E18" s="20" t="s">
-        <x:v>185</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F18" s="34" t="s">
         <x:v>186</x:v>
       </x:c>
       <x:c r="G18" s="20" t="s">
-        <x:v>168</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="H18" s="35" t="s">
-        <x:v>208</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="I18" s="35" t="s">
-        <x:v>91</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J18" s="34">
         <x:v>0</x:v>
@@ -6467,104 +6494,110 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W18" s="35" t="s">
-        <x:v>233</x:v>
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="X18" s="35" t="s">
+        <x:v>252</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:23" s="8" customFormat="1">
+    <x:row r="19" spans="1:24" s="8" customFormat="1">
       <x:c r="A19" s="8" t="s">
-        <x:v>4</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C19" s="8" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D19" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E19" s="8" t="s">
-        <x:v>90</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F19" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G19" s="8" t="s">
-        <x:v>85</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H19" s="8" t="s">
-        <x:v>148</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="I19" s="8" t="s">
         <x:v>145</x:v>
       </x:c>
       <x:c r="J19" s="8" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K19" s="8" t="s">
-        <x:v>146</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="L19" s="8" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="M19" s="8" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="N19" s="8" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="O19" s="8" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="P19" s="8" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="M19" s="8" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="N19" s="8" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="O19" s="8" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="P19" s="8" t="s">
-        <x:v>88</x:v>
-      </x:c>
       <x:c r="Q19" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="R19" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="S19" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="T19" s="8" t="s">
         <x:v>209</x:v>
       </x:c>
       <x:c r="U19" s="8" t="s">
-        <x:v>220</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="V19" s="8" t="s">
-        <x:v>184</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="W19" s="5" t="s">
-        <x:v>246</x:v>
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="X19" s="5" t="s">
+        <x:v>140</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="2:23" s="35" customFormat="1">
+    <x:row r="20" spans="2:24" s="35" customFormat="1">
       <x:c r="B20" s="35">
         <x:v>20201</x:v>
       </x:c>
       <x:c r="C20" s="35" t="s">
-        <x:v>180</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D20" s="35" t="s">
-        <x:v>193</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E20" s="20" t="s">
-        <x:v>185</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F20" s="34" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G20" s="20" t="s">
-        <x:v>168</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="H20" s="35" t="s">
-        <x:v>207</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="I20" s="35" t="s">
-        <x:v>91</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J20" s="34">
         <x:v>0</x:v>
@@ -6608,33 +6641,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W20" s="35" t="s">
-        <x:v>236</x:v>
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="X20" s="35" t="s">
+        <x:v>252</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="2:23" s="35" customFormat="1">
+    <x:row r="21" spans="2:24" s="35" customFormat="1">
       <x:c r="B21" s="35">
         <x:v>20202</x:v>
       </x:c>
       <x:c r="C21" s="35" t="s">
-        <x:v>180</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D21" s="35" t="s">
-        <x:v>193</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E21" s="20" t="s">
-        <x:v>185</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F21" s="34" t="s">
-        <x:v>189</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="G21" s="20" t="s">
-        <x:v>168</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="H21" s="35" t="s">
-        <x:v>207</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="I21" s="35" t="s">
-        <x:v>91</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J21" s="34">
         <x:v>0</x:v>
@@ -6678,109 +6714,114 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W21" s="35" t="s">
-        <x:v>231</x:v>
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="X21" s="35" t="s">
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:28" s="5" customFormat="1">
       <x:c r="A22" s="8" t="s">
-        <x:v>4</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B22" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C22" s="8" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D22" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E22" s="8" t="s">
-        <x:v>90</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F22" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G22" s="8" t="s">
-        <x:v>85</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H22" s="8" t="s">
-        <x:v>148</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="I22" s="8" t="s">
         <x:v>145</x:v>
       </x:c>
       <x:c r="J22" s="8" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K22" s="8" t="s">
-        <x:v>146</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="L22" s="8" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="M22" s="8" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="N22" s="8" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="O22" s="8" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="P22" s="8" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="M22" s="8" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="N22" s="8" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="O22" s="8" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="P22" s="8" t="s">
-        <x:v>88</x:v>
-      </x:c>
       <x:c r="Q22" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="R22" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="S22" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="T22" s="8" t="s">
         <x:v>209</x:v>
       </x:c>
       <x:c r="U22" s="8" t="s">
-        <x:v>220</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="V22" s="8" t="s">
-        <x:v>184</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="W22" s="5" t="s">
-        <x:v>246</x:v>
-      </x:c>
-      <x:c r="X22" s="8"/>
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="X22" s="5" t="s">
+        <x:v>140</x:v>
+      </x:c>
       <x:c r="Y22" s="8"/>
       <x:c r="Z22" s="8"/>
       <x:c r="AA22" s="8"/>
       <x:c r="AB22" s="8"/>
     </x:row>
-    <x:row r="23" spans="2:23" s="35" customFormat="1">
+    <x:row r="23" spans="2:24" s="35" customFormat="1">
       <x:c r="B23" s="35">
         <x:v>21001</x:v>
       </x:c>
       <x:c r="C23" s="35" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D23" s="35" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="E23" s="35" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="F23" s="34" t="s">
         <x:v>180</x:v>
       </x:c>
-      <x:c r="D23" s="35" t="s">
-        <x:v>206</x:v>
-      </x:c>
-      <x:c r="E23" s="35" t="s">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="F23" s="34" t="s">
-        <x:v>160</x:v>
-      </x:c>
       <x:c r="G23" s="35" t="s">
-        <x:v>168</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="H23" s="35" t="s">
-        <x:v>239</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="I23" s="35" t="s">
-        <x:v>91</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J23" s="34">
         <x:v>0</x:v>
@@ -6824,33 +6865,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W23" s="35" t="s">
-        <x:v>238</x:v>
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="X23" s="35" t="s">
+        <x:v>252</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="2:23" s="35" customFormat="1">
+    <x:row r="24" spans="2:24" s="35" customFormat="1">
       <x:c r="B24" s="35">
         <x:v>21002</x:v>
       </x:c>
       <x:c r="C24" s="35" t="s">
-        <x:v>180</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D24" s="35" t="s">
-        <x:v>206</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E24" s="35" t="s">
-        <x:v>185</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F24" s="34" t="s">
-        <x:v>194</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="G24" s="35" t="s">
-        <x:v>168</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="H24" s="35" t="s">
-        <x:v>239</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="I24" s="35" t="s">
-        <x:v>91</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J24" s="34">
         <x:v>0</x:v>
@@ -6894,104 +6938,110 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="W24" s="35" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="X24" s="35" t="s">
+        <x:v>252</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:23" s="8" customFormat="1">
+    <x:row r="25" spans="1:24" s="8" customFormat="1">
       <x:c r="A25" s="8" t="s">
-        <x:v>4</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B25" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C25" s="8" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D25" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E25" s="8" t="s">
-        <x:v>90</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F25" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G25" s="8" t="s">
-        <x:v>85</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H25" s="8" t="s">
-        <x:v>148</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="I25" s="8" t="s">
         <x:v>145</x:v>
       </x:c>
       <x:c r="J25" s="8" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K25" s="8" t="s">
-        <x:v>146</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="L25" s="8" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="M25" s="8" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="N25" s="8" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="O25" s="8" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="P25" s="8" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="M25" s="8" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="N25" s="8" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="O25" s="8" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="P25" s="8" t="s">
-        <x:v>88</x:v>
-      </x:c>
       <x:c r="Q25" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="R25" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="S25" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="T25" s="8" t="s">
         <x:v>209</x:v>
       </x:c>
       <x:c r="U25" s="8" t="s">
-        <x:v>220</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="V25" s="8" t="s">
-        <x:v>184</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="W25" s="5" t="s">
-        <x:v>246</x:v>
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="X25" s="5" t="s">
+        <x:v>140</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="2:23" s="35" customFormat="1">
+    <x:row r="26" spans="2:24" s="35" customFormat="1">
       <x:c r="B26" s="35">
         <x:v>22001</x:v>
       </x:c>
       <x:c r="C26" s="35" t="s">
-        <x:v>180</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D26" s="35" t="s">
-        <x:v>213</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E26" s="35" t="s">
-        <x:v>185</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F26" s="34" t="s">
-        <x:v>202</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="G26" s="35" t="s">
-        <x:v>168</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="H26" s="35" t="s">
-        <x:v>228</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="I26" s="35" t="s">
-        <x:v>91</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J26" s="34">
         <x:v>0</x:v>
@@ -7035,33 +7085,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W26" s="35" t="s">
-        <x:v>230</x:v>
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="X26" s="35" t="s">
+        <x:v>252</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="2:23" s="35" customFormat="1">
+    <x:row r="27" spans="2:24" s="35" customFormat="1">
       <x:c r="B27" s="35">
         <x:v>22002</x:v>
       </x:c>
       <x:c r="C27" s="35" t="s">
-        <x:v>180</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D27" s="35" t="s">
-        <x:v>213</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E27" s="20" t="s">
-        <x:v>185</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F27" s="34" t="s">
-        <x:v>200</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G27" s="20" t="s">
-        <x:v>168</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="H27" s="35" t="s">
-        <x:v>228</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="I27" s="35" t="s">
-        <x:v>91</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J27" s="34">
         <x:v>0</x:v>
@@ -7105,104 +7158,110 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W27" s="35" t="s">
-        <x:v>244</x:v>
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="X27" s="35" t="s">
+        <x:v>252</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:23" s="8" customFormat="1">
+    <x:row r="28" spans="1:24" s="8" customFormat="1">
       <x:c r="A28" s="8" t="s">
-        <x:v>4</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B28" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C28" s="8" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D28" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E28" s="8" t="s">
-        <x:v>90</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F28" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G28" s="8" t="s">
-        <x:v>85</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H28" s="8" t="s">
-        <x:v>148</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="I28" s="8" t="s">
         <x:v>145</x:v>
       </x:c>
       <x:c r="J28" s="8" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K28" s="8" t="s">
-        <x:v>146</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="L28" s="8" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="M28" s="8" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="N28" s="8" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="O28" s="8" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="P28" s="8" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="M28" s="8" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="N28" s="8" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="O28" s="8" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="P28" s="8" t="s">
-        <x:v>88</x:v>
-      </x:c>
       <x:c r="Q28" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="R28" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="S28" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="T28" s="8" t="s">
         <x:v>209</x:v>
       </x:c>
       <x:c r="U28" s="8" t="s">
-        <x:v>220</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="V28" s="8" t="s">
-        <x:v>184</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="W28" s="5" t="s">
-        <x:v>246</x:v>
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="X28" s="5" t="s">
+        <x:v>140</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="2:23" s="35" customFormat="1">
+    <x:row r="29" spans="2:24" s="35" customFormat="1">
       <x:c r="B29" s="35">
         <x:v>23001</x:v>
       </x:c>
       <x:c r="C29" s="35" t="s">
-        <x:v>180</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D29" s="35" t="s">
-        <x:v>192</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E29" s="20" t="s">
-        <x:v>185</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F29" s="34" t="s">
-        <x:v>196</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="G29" s="20" t="s">
-        <x:v>168</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="H29" s="35" t="s">
-        <x:v>222</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="I29" s="35" t="s">
-        <x:v>91</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J29" s="34">
         <x:v>0</x:v>
@@ -7246,33 +7305,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W29" s="35" t="s">
-        <x:v>242</x:v>
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="X29" s="35" t="s">
+        <x:v>252</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="2:23" s="35" customFormat="1">
+    <x:row r="30" spans="2:24" s="35" customFormat="1">
       <x:c r="B30" s="35">
         <x:v>23002</x:v>
       </x:c>
       <x:c r="C30" s="35" t="s">
-        <x:v>180</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D30" s="35" t="s">
-        <x:v>192</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E30" s="20" t="s">
-        <x:v>185</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F30" s="34" t="s">
-        <x:v>190</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="G30" s="20" t="s">
-        <x:v>168</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="H30" s="35" t="s">
-        <x:v>222</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="I30" s="35" t="s">
-        <x:v>91</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J30" s="34">
         <x:v>0</x:v>
@@ -7316,109 +7378,114 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W30" s="35" t="s">
-        <x:v>235</x:v>
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="X30" s="35" t="s">
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:28" s="5" customFormat="1">
       <x:c r="A31" s="8" t="s">
-        <x:v>4</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B31" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C31" s="8" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D31" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E31" s="8" t="s">
-        <x:v>90</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F31" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G31" s="8" t="s">
-        <x:v>85</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H31" s="8" t="s">
-        <x:v>148</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="I31" s="8" t="s">
         <x:v>145</x:v>
       </x:c>
       <x:c r="J31" s="8" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K31" s="8" t="s">
-        <x:v>146</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="L31" s="8" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="M31" s="8" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="N31" s="8" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="O31" s="8" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="P31" s="8" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="M31" s="8" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="N31" s="8" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="O31" s="8" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="P31" s="8" t="s">
-        <x:v>88</x:v>
-      </x:c>
       <x:c r="Q31" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="R31" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="S31" s="8" t="s">
-        <x:v>163</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="T31" s="8" t="s">
         <x:v>209</x:v>
       </x:c>
       <x:c r="U31" s="8" t="s">
-        <x:v>220</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="V31" s="8" t="s">
-        <x:v>220</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="W31" s="5" t="s">
-        <x:v>246</x:v>
-      </x:c>
-      <x:c r="X31" s="8"/>
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="X31" s="5" t="s">
+        <x:v>140</x:v>
+      </x:c>
       <x:c r="Y31" s="8"/>
       <x:c r="Z31" s="8"/>
       <x:c r="AA31" s="8"/>
       <x:c r="AB31" s="8"/>
     </x:row>
-    <x:row r="32" spans="2:23" s="35" customFormat="1">
+    <x:row r="32" spans="2:24" s="35" customFormat="1">
       <x:c r="B32" s="35">
         <x:v>300</x:v>
       </x:c>
       <x:c r="C32" s="35" t="s">
-        <x:v>180</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D32" s="35" t="s">
         <x:v>187</x:v>
       </x:c>
       <x:c r="E32" s="20" t="s">
-        <x:v>185</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F32" s="34" t="s">
-        <x:v>109</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G32" s="20" t="s">
-        <x:v>168</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="H32" s="35" t="s">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="I32" s="35" t="s">
-        <x:v>91</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J32" s="34">
         <x:v>0</x:v>
@@ -7450,7 +7517,7 @@
         <x:v>하의1 입니다</x:v>
       </x:c>
       <x:c r="S32" s="35" t="s">
-        <x:v>165</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="T32" s="35">
         <x:v>0</x:v>
@@ -7462,33 +7529,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W32" s="35" t="s">
-        <x:v>245</x:v>
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="X32" s="35" t="s">
+        <x:v>253</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="2:23" s="35" customFormat="1">
+    <x:row r="33" spans="2:24" s="35" customFormat="1">
       <x:c r="B33" s="35">
         <x:v>301</x:v>
       </x:c>
       <x:c r="C33" s="35" t="s">
-        <x:v>180</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D33" s="35" t="s">
         <x:v>187</x:v>
       </x:c>
       <x:c r="E33" s="20" t="s">
-        <x:v>185</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F33" s="34" t="s">
-        <x:v>125</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G33" s="20" t="s">
-        <x:v>168</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="H33" s="35" t="s">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="I33" s="35" t="s">
-        <x:v>91</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J33" s="34">
         <x:v>0</x:v>
@@ -7520,7 +7590,7 @@
         <x:v>하의2 입니다</x:v>
       </x:c>
       <x:c r="S33" s="35" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="T33" s="35">
         <x:v>1</x:v>
@@ -7532,33 +7602,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W33" s="35" t="s">
-        <x:v>226</x:v>
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="X33" s="35" t="s">
+        <x:v>253</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="2:23" s="35" customFormat="1">
+    <x:row r="34" spans="2:24" s="35" customFormat="1">
       <x:c r="B34" s="35">
         <x:v>302</x:v>
       </x:c>
       <x:c r="C34" s="35" t="s">
-        <x:v>180</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D34" s="35" t="s">
         <x:v>187</x:v>
       </x:c>
       <x:c r="E34" s="20" t="s">
-        <x:v>185</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F34" s="34" t="s">
-        <x:v>126</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G34" s="20" t="s">
-        <x:v>168</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="H34" s="35" t="s">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="I34" s="35" t="s">
-        <x:v>91</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J34" s="34">
         <x:v>0</x:v>
@@ -7590,7 +7663,7 @@
         <x:v>하의3 입니다</x:v>
       </x:c>
       <x:c r="S34" s="35" t="s">
-        <x:v>8</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="T34" s="35">
         <x:v>1</x:v>
@@ -7602,33 +7675,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W34" s="35" t="s">
-        <x:v>240</x:v>
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="X34" s="35" t="s">
+        <x:v>253</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="2:23" s="35" customFormat="1">
+    <x:row r="35" spans="2:24" s="35" customFormat="1">
       <x:c r="B35" s="35">
         <x:v>303</x:v>
       </x:c>
       <x:c r="C35" s="35" t="s">
-        <x:v>180</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D35" s="35" t="s">
         <x:v>187</x:v>
       </x:c>
       <x:c r="E35" s="20" t="s">
-        <x:v>185</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F35" s="34" t="s">
-        <x:v>110</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G35" s="20" t="s">
-        <x:v>168</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="H35" s="35" t="s">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="I35" s="35" t="s">
-        <x:v>91</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J35" s="34">
         <x:v>0</x:v>
@@ -7660,7 +7736,7 @@
         <x:v>하의4 입니다</x:v>
       </x:c>
       <x:c r="S35" s="35" t="s">
-        <x:v>19</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="T35" s="35">
         <x:v>1</x:v>
@@ -7672,33 +7748,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W35" s="35" t="s">
-        <x:v>225</x:v>
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="X35" s="35" t="s">
+        <x:v>253</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="2:23" s="35" customFormat="1">
+    <x:row r="36" spans="2:24" s="35" customFormat="1">
       <x:c r="B36" s="35">
         <x:v>304</x:v>
       </x:c>
       <x:c r="C36" s="35" t="s">
-        <x:v>180</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D36" s="35" t="s">
         <x:v>187</x:v>
       </x:c>
       <x:c r="E36" s="20" t="s">
-        <x:v>185</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F36" s="34" t="s">
-        <x:v>120</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G36" s="20" t="s">
-        <x:v>168</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="H36" s="35" t="s">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="I36" s="35" t="s">
-        <x:v>91</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J36" s="34">
         <x:v>0</x:v>
@@ -7730,7 +7809,7 @@
         <x:v>하의5 입니다</x:v>
       </x:c>
       <x:c r="S36" s="35" t="s">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="T36" s="35">
         <x:v>1</x:v>
@@ -7742,33 +7821,36 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W36" s="35" t="s">
-        <x:v>232</x:v>
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="X36" s="35" t="s">
+        <x:v>253</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="2:23" s="35" customFormat="1">
+    <x:row r="37" spans="2:24" s="35" customFormat="1">
       <x:c r="B37" s="35">
         <x:v>305</x:v>
       </x:c>
       <x:c r="C37" s="35" t="s">
-        <x:v>180</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D37" s="35" t="s">
         <x:v>187</x:v>
       </x:c>
       <x:c r="E37" s="20" t="s">
-        <x:v>185</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F37" s="34" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="G37" s="20" t="s">
-        <x:v>168</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="H37" s="35" t="s">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="I37" s="35" t="s">
-        <x:v>91</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J37" s="34">
         <x:v>0</x:v>
@@ -7800,7 +7882,7 @@
         <x:v>하의6 입니다</x:v>
       </x:c>
       <x:c r="S37" s="35" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="T37" s="35">
         <x:v>1</x:v>
@@ -7812,12 +7894,15 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="W37" s="35" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="X37" s="35" t="s">
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:29" s="35" customFormat="1">
       <x:c r="A38" s="19" t="s">
-        <x:v>93</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B38" s="19"/>
       <x:c r="C38" s="19"/>
@@ -7850,64 +7935,64 @@
     </x:row>
     <x:row r="39" spans="1:28" s="5" customFormat="1">
       <x:c r="A39" s="8" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B39" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C39" s="8" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D39" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E39" s="8" t="s">
-        <x:v>90</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F39" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G39" s="8" t="s">
-        <x:v>85</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H39" s="8" t="s">
-        <x:v>148</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="I39" s="8" t="s">
         <x:v>145</x:v>
       </x:c>
       <x:c r="J39" s="8" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K39" s="8" t="s">
-        <x:v>146</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="L39" s="8" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="M39" s="8" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="N39" s="8" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="O39" s="8" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="P39" s="8" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="M39" s="8" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="N39" s="8" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="O39" s="8" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="P39" s="8" t="s">
-        <x:v>88</x:v>
-      </x:c>
       <x:c r="Q39" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="R39" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="S39" s="8" t="s">
-        <x:v>113</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="T39" s="8" t="s">
-        <x:v>115</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="U39" s="8"/>
       <x:c r="V39" s="8"/>
@@ -7924,25 +8009,25 @@
         <x:v>10001</x:v>
       </x:c>
       <x:c r="C40" s="35" t="s">
-        <x:v>198</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D40" s="15" t="s">
-        <x:v>205</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E40" s="20" t="s">
         <x:v>176</x:v>
       </x:c>
       <x:c r="F40" s="13" t="s">
-        <x:v>241</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G40" s="39" t="s">
-        <x:v>162</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="H40" s="13">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I40" s="35" t="s">
-        <x:v>81</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="J40" s="13">
         <x:v>0</x:v>
@@ -7954,7 +8039,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M40" s="20" t="s">
-        <x:v>179</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="N40" s="16">
         <x:v>0</x:v>
@@ -7969,7 +8054,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R40" s="13" t="s">
-        <x:v>79</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="S40" s="34">
         <x:v>100</x:v>
@@ -7992,25 +8077,25 @@
         <x:v>10002</x:v>
       </x:c>
       <x:c r="C41" s="35" t="s">
-        <x:v>198</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D41" s="15" t="s">
-        <x:v>205</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E41" s="20" t="s">
         <x:v>176</x:v>
       </x:c>
       <x:c r="F41" s="13" t="s">
-        <x:v>221</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="G41" s="39" t="s">
-        <x:v>162</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="H41" s="13">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I41" s="35" t="s">
-        <x:v>81</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="J41" s="13">
         <x:v>0</x:v>
@@ -8022,7 +8107,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M41" s="20" t="s">
-        <x:v>179</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="N41" s="16">
         <x:v>0</x:v>
@@ -8037,7 +8122,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R41" s="35" t="s">
-        <x:v>82</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="S41" s="34">
         <x:v>0</x:v>
@@ -8056,7 +8141,7 @@
     </x:row>
     <x:row r="42" spans="1:29" s="35" customFormat="1">
       <x:c r="A42" s="19" t="s">
-        <x:v>93</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B42" s="19"/>
       <x:c r="C42" s="19"/>
@@ -8089,58 +8174,58 @@
     </x:row>
     <x:row r="43" spans="1:18" s="8" customFormat="1">
       <x:c r="A43" s="8" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B43" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C43" s="8" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D43" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E43" s="8" t="s">
-        <x:v>90</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F43" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G43" s="8" t="s">
-        <x:v>85</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H43" s="8" t="s">
-        <x:v>148</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="I43" s="8" t="s">
         <x:v>145</x:v>
       </x:c>
       <x:c r="J43" s="8" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K43" s="8" t="s">
-        <x:v>146</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="L43" s="8" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="M43" s="8" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="N43" s="8" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="O43" s="8" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="P43" s="8" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="M43" s="8" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="N43" s="8" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="O43" s="8" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="P43" s="8" t="s">
-        <x:v>88</x:v>
-      </x:c>
       <x:c r="Q43" s="8" t="s">
-        <x:v>103</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="R43" s="8" t="s">
-        <x:v>99</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:24" s="35" customFormat="1">
@@ -8149,25 +8234,25 @@
         <x:v>30001</x:v>
       </x:c>
       <x:c r="C44" s="35" t="s">
-        <x:v>214</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D44" s="39" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E44" s="35" t="s">
         <x:v>176</x:v>
       </x:c>
       <x:c r="F44" s="35" t="s">
-        <x:v>112</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G44" s="39" t="s">
-        <x:v>162</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="H44" s="35">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I44" s="35" t="s">
-        <x:v>81</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="J44" s="35">
         <x:v>0</x:v>
@@ -8179,7 +8264,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M44" s="35" t="s">
-        <x:v>179</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="N44" s="34">
         <x:v>1</x:v>
@@ -8194,7 +8279,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R44" s="35" t="s">
-        <x:v>112</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="S44" s="34"/>
       <x:c r="T44" s="34"/>
@@ -8205,7 +8290,7 @@
     </x:row>
     <x:row r="45" spans="1:28" s="6" customFormat="1">
       <x:c r="A45" s="11" t="s">
-        <x:v>149</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B45" s="11"/>
       <x:c r="C45" s="11"/>
@@ -8237,67 +8322,67 @@
     </x:row>
     <x:row r="46" spans="1:28" s="5" customFormat="1">
       <x:c r="A46" s="8" t="s">
-        <x:v>14</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B46" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C46" s="8" t="s">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D46" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E46" s="8" t="s">
-        <x:v>90</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F46" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G46" s="8" t="s">
-        <x:v>85</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H46" s="8" t="s">
-        <x:v>148</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="I46" s="8" t="s">
         <x:v>145</x:v>
       </x:c>
       <x:c r="J46" s="8" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="K46" s="8" t="s">
-        <x:v>146</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="L46" s="8" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="M46" s="8" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="N46" s="8" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="O46" s="8" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="P46" s="8" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="M46" s="8" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="N46" s="8" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="O46" s="8" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="P46" s="8" t="s">
-        <x:v>88</x:v>
-      </x:c>
       <x:c r="Q46" s="8" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="R46" s="8" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="S46" s="8" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="T46" s="8" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="U46" s="8" t="s">
         <x:v>103</x:v>
-      </x:c>
-      <x:c r="R46" s="8" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="S46" s="8" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="T46" s="8" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="U46" s="8" t="s">
-        <x:v>100</x:v>
       </x:c>
       <x:c r="V46" s="8"/>
       <x:c r="W46" s="8"/>
@@ -8312,25 +8397,25 @@
         <x:v>40001</x:v>
       </x:c>
       <x:c r="C47" s="35" t="s">
-        <x:v>199</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D47" s="35" t="s">
-        <x:v>94</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E47" s="35" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F47" s="35" t="s">
-        <x:v>181</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G47" s="20" t="s">
-        <x:v>168</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="H47" s="35">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I47" s="35" t="s">
-        <x:v>177</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="J47" s="35">
         <x:v>0</x:v>
@@ -8357,13 +8442,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="R47" s="35" t="s">
-        <x:v>181</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="S47" s="35">
         <x:v>10</x:v>
       </x:c>
       <x:c r="T47" s="35" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="U47" s="35">
         <x:v>1</x:v>
@@ -8392,39 +8477,39 @@
   <x:sheetData>
     <x:row r="2" spans="2:7">
       <x:c r="B2" t="s">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D2" t="s">
-        <x:v>73</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E2" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F2" t="s">
-        <x:v>75</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G2" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:7">
       <x:c r="B3" t="s">
-        <x:v>111</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C3" t="s">
-        <x:v>153</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D3" t="s">
-        <x:v>108</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E3" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="F3" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="G3" t="s">
         <x:v>122</x:v>
-      </x:c>
-      <x:c r="F3" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="G3" t="s">
-        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
@@ -8718,7 +8803,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>